--- a/F_Meta_Analysis_WholeBrain/figure_results/TD_Full_pla_rrating_pperm05.xlsx
+++ b/F_Meta_Analysis_WholeBrain/figure_results/TD_Full_pla_rrating_pperm05.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="87">
   <si>
     <t>No</t>
   </si>
@@ -23,31 +23,34 @@
     <t>labels</t>
   </si>
   <si>
-    <t>Right Cerebrum.Frontal Lobe.Medial Frontal Gyrus.Gray Matter.Brodmann area 6 (29.6%), Right Cerebrum.Frontal Lobe.Medial Frontal Gyrus.White Matter.* (17.2%)</t>
-  </si>
-  <si>
-    <t>Right Cerebrum.Sub-lobar.Thalamus.Gray Matter.Medial Dorsal Nucleus (75%), Right Cerebrum.Sub-lobar.Thalamus.Gray Matter.* (12.5%)</t>
-  </si>
-  <si>
-    <t>Right Cerebrum.Frontal Lobe.Inferior Frontal Gyrus.Gray Matter.Brodmann area 47 (70%), Right Cerebrum.Frontal Lobe.Inferior Frontal Gyrus.*.* (30%)</t>
+    <t>*.*.*.*.* (74%), Left Cerebrum.Frontal Lobe.Sub-Gyral.White Matter.* (0.7%)</t>
+  </si>
+  <si>
+    <t>Right Cerebrum.Frontal Lobe.Medial Frontal Gyrus.Gray Matter.Brodmann area 6 (29.9%), Right Cerebrum.Frontal Lobe.Medial Frontal Gyrus.White Matter.* (17.2%)</t>
+  </si>
+  <si>
+    <t>Right Cerebrum.Sub-lobar.Thalamus.Gray Matter.Medial Dorsal Nucleus (70.6%), Right Cerebrum.Sub-lobar.Thalamus.Gray Matter.* (11.8%)</t>
+  </si>
+  <si>
+    <t>Right Cerebrum.Frontal Lobe.Inferior Frontal Gyrus.Gray Matter.Brodmann area 47 (72.7%), Right Cerebrum.Frontal Lobe.Inferior Frontal Gyrus.*.* (27.3%)</t>
   </si>
   <si>
     <t>Left Cerebrum.Sub-lobar.Thalamus.Gray Matter.* (66.7%), Left Cerebrum.Sub-lobar.Thalamus.Gray Matter.Medial Dorsal Nucleus (16.7%)</t>
   </si>
   <si>
+    <t>Right Cerebrum.Limbic Lobe.Cingulate Gyrus.*.* (50%), Right Cerebrum.Limbic Lobe.Cingulate Gyrus.Gray Matter.Brodmann area 24 (50%)</t>
+  </si>
+  <si>
     <t>Right Cerebrum.Limbic Lobe.Cingulate Gyrus.Gray Matter.Brodmann area 31 (60%), Right Cerebrum.Limbic Lobe.Cingulate Gyrus.*.* (40%)</t>
   </si>
   <si>
-    <t>Right Cerebrum.Limbic Lobe.Cingulate Gyrus.Gray Matter.Brodmann area 24 (75%), Right Cerebrum.Limbic Lobe.Cingulate Gyrus.*.* (25%)</t>
-  </si>
-  <si>
-    <t>Right Cerebrum.Sub-lobar.Insula.White Matter.* (50%), Right Cerebrum.Sub-lobar.Insula.Gray Matter.Brodmann area 13 (50%)</t>
+    <t>Right Cerebrum.Sub-lobar.Extra-Nuclear.White Matter.* (33.3%), Right Cerebrum.Sub-lobar.Insula.White Matter.* (33.3%)</t>
   </si>
   <si>
     <t>Right Cerebrum.Frontal-Temporal Space.*.*.* (100%)</t>
   </si>
   <si>
-    <t>Right Cerebrum.Limbic Lobe.Cingulate Gyrus.*.* (100%)</t>
+    <t>Left Cerebrum.Parietal Lobe.Postcentral Gyrus.White Matter.* (100%)</t>
   </si>
   <si>
     <t>Right Cerebrum.Frontal Lobe.Precentral Gyrus.Gray Matter.Brodmann area 6 (100%)</t>
@@ -56,6 +59,9 @@
     <t>X</t>
   </si>
   <si>
+    <t>90</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
@@ -68,7 +74,7 @@
     <t>-8</t>
   </si>
   <si>
-    <t>14</t>
+    <t>16</t>
   </si>
   <si>
     <t>36</t>
@@ -77,7 +83,7 @@
     <t>58</t>
   </si>
   <si>
-    <t>16</t>
+    <t>-60</t>
   </si>
   <si>
     <t>40</t>
@@ -86,6 +92,9 @@
     <t>Y</t>
   </si>
   <si>
+    <t>-126</t>
+  </si>
+  <si>
     <t>-16</t>
   </si>
   <si>
@@ -95,6 +104,9 @@
     <t>-10</t>
   </si>
   <si>
+    <t>-20</t>
+  </si>
+  <si>
     <t>-4</t>
   </si>
   <si>
@@ -104,15 +116,15 @@
     <t>12</t>
   </si>
   <si>
-    <t>-20</t>
-  </si>
-  <si>
     <t>-2</t>
   </si>
   <si>
     <t>Z</t>
   </si>
   <si>
+    <t>-72</t>
+  </si>
+  <si>
     <t>60</t>
   </si>
   <si>
@@ -122,22 +134,31 @@
     <t>46</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>Voxels</t>
   </si>
   <si>
-    <t>169</t>
+    <t>902629</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>4</t>
+    <t>3</t>
   </si>
   <si>
     <t>2</t>
@@ -155,43 +176,43 @@
     <t>410</t>
   </si>
   <si>
+    <t>437</t>
+  </si>
+  <si>
     <t>460</t>
   </si>
   <si>
-    <t>437</t>
-  </si>
-  <si>
     <t>429</t>
   </si>
   <si>
     <t>455</t>
   </si>
   <si>
-    <t>Isq</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>16%</t>
-  </si>
-  <si>
-    <t>4%</t>
-  </si>
-  <si>
-    <t>7%</t>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.04</t>
   </si>
   <si>
     <t>rrating</t>
   </si>
   <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>0.23</t>
+    <t>-0.27</t>
+  </si>
+  <si>
+    <t>-0.24</t>
+  </si>
+  <si>
+    <t>-0.23</t>
+  </si>
+  <si>
+    <t>-0.22</t>
   </si>
   <si>
     <t>SE</t>
@@ -203,55 +224,58 @@
     <t>z</t>
   </si>
   <si>
-    <t>5.50</t>
-  </si>
-  <si>
-    <t>4.47</t>
-  </si>
-  <si>
-    <t>4.45</t>
-  </si>
-  <si>
-    <t>4.61</t>
-  </si>
-  <si>
-    <t>4.67</t>
-  </si>
-  <si>
-    <t>4.52</t>
-  </si>
-  <si>
-    <t>4.74</t>
+    <t>-5.50</t>
+  </si>
+  <si>
+    <t>-4.47</t>
+  </si>
+  <si>
+    <t>-4.45</t>
+  </si>
+  <si>
+    <t>-4.61</t>
+  </si>
+  <si>
+    <t>-4.74</t>
+  </si>
+  <si>
+    <t>-4.52</t>
+  </si>
+  <si>
+    <t>-4.42</t>
+  </si>
+  <si>
+    <t>-4.67</t>
   </si>
   <si>
     <t>p05perm</t>
   </si>
   <si>
-    <t>.002</t>
-  </si>
-  <si>
-    <t>.043</t>
-  </si>
-  <si>
-    <t>.044</t>
-  </si>
-  <si>
-    <t>.025</t>
-  </si>
-  <si>
-    <t>.024</t>
+    <t>.000</t>
+  </si>
+  <si>
+    <t>.042</t>
+  </si>
+  <si>
+    <t>.045</t>
+  </si>
+  <si>
+    <t>.027</t>
+  </si>
+  <si>
+    <t>.017</t>
+  </si>
+  <si>
+    <t>.026</t>
+  </si>
+  <si>
+    <t>.035</t>
+  </si>
+  <si>
+    <t>.048</t>
   </si>
   <si>
     <t>.022</t>
-  </si>
-  <si>
-    <t>.032</t>
-  </si>
-  <si>
-    <t>.033</t>
-  </si>
-  <si>
-    <t>.017</t>
   </si>
 </sst>
 </file>
@@ -299,20 +323,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="true"/>
     <col min="2" max="2" width="157.7109375" customWidth="true"/>
-    <col min="3" max="3" width="2.7109375" customWidth="true"/>
-    <col min="4" max="4" width="3.7109375" customWidth="true"/>
-    <col min="5" max="5" width="2.7109375" customWidth="true"/>
+    <col min="3" max="3" width="3.7109375" customWidth="true"/>
+    <col min="4" max="4" width="4.7109375" customWidth="true"/>
+    <col min="5" max="5" width="3.7109375" customWidth="true"/>
     <col min="6" max="6" width="6.7109375" customWidth="true"/>
     <col min="7" max="7" width="3.7109375" customWidth="true"/>
-    <col min="8" max="8" width="3.7109375" customWidth="true"/>
+    <col min="8" max="8" width="4.7109375" customWidth="true"/>
     <col min="9" max="9" width="7.7109375" customWidth="true"/>
     <col min="10" max="10" width="4.7109375" customWidth="true"/>
-    <col min="11" max="11" width="4.7109375" customWidth="true"/>
+    <col min="11" max="11" width="5.7109375" customWidth="true"/>
     <col min="12" max="12" width="7.7109375" customWidth="true"/>
   </cols>
   <sheetData>
@@ -324,34 +348,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
@@ -362,376 +386,414 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>75</v>
+      <c r="G12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
